--- a/conf/conf.xlsx
+++ b/conf/conf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">Darstellung im Riss (auch Instrumentenstandpunkte)</t>
   </si>
   <si>
-    <t>Zuverlässigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuverlässigkeit des Lageanschlusses (Anzahl, Verteilung…) gemäß 4.3.2 LiVermVV</t>
+    <t xml:space="preserve">Zulässigkeit des Lageanschlusses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulässigkeit des Lageanschlusses (Anzahl, Verteilung…) gemäß 4.3.2 LiVermVV</t>
   </si>
   <si>
     <t>Dokumentation</t>
@@ -338,11 +338,14 @@
     <t xml:space="preserve">Angabe der verwendeten Unterlagen (mit Buchstaben) </t>
   </si>
   <si>
-    <t xml:space="preserve">Nachweis Punktidentität</t>
+    <t xml:space="preserve">Nachweis Punktidentität Vermessungsriss</t>
   </si>
   <si>
     <t xml:space="preserve">Nachweis der Punktidentität, siehe 5.1.1 LiVermVV (Gegenüberstellung: Katasterzahlen&lt;&gt;Ergebnis der 
 Grenzermittlung) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachweis Punktidentität Koordinatenverzeichnis</t>
   </si>
   <si>
     <t xml:space="preserve">Nachweis der Punktidentität im Koordinatenkastaster gemäß 5.1.1 LiVermVV (Sollkoordinate&lt;&gt;Istkoordinate,
@@ -748,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -774,6 +777,7 @@
     </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +786,9 @@
     </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1315,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1486,7 +1493,7 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2367,10 +2374,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D37" t="s">
@@ -2541,10 +2548,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D43" t="s">
@@ -2570,11 +2577,11 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>108</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="D44" t="s">
         <v>103</v>
@@ -2600,10 +2607,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
         <v>103</v>
@@ -2629,10 +2636,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
         <v>103</v>
@@ -2658,13 +2665,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -2687,13 +2694,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>115</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -2716,13 +2723,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -2744,14 +2751,14 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="17" t="s">
         <v>120</v>
       </c>
+      <c r="C50" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -2773,14 +2780,14 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
         <v>122</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" t="s">
-        <v>121</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -2803,13 +2810,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -2832,13 +2839,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -2860,14 +2867,14 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="B54" s="17" t="s">
         <v>129</v>
       </c>
+      <c r="C54" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -2890,13 +2897,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -2919,13 +2926,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -2948,13 +2955,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
         <v>135</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" t="s">
-        <v>134</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -2977,13 +2984,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -3005,14 +3012,14 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="C59" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
@@ -3034,14 +3041,14 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
         <v>140</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" t="s">
-        <v>139</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
@@ -3063,14 +3070,14 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>142</v>
+      <c r="B61" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -3092,14 +3099,14 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
         <v>144</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -3121,14 +3128,14 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="20" t="s">
         <v>147</v>
       </c>
+      <c r="C63" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -3150,14 +3157,14 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="C64" s="21" t="s">
         <v>150</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -3179,14 +3186,14 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -3209,10 +3216,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -3224,7 +3231,7 @@
         <v>13</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3247,142 +3254,141 @@
     <col customWidth="1" min="1" max="1" width="37.7109375"/>
     <col customWidth="1" min="2" max="2" width="19"/>
     <col customWidth="1" min="3" max="3" width="19.85546875"/>
-    <col min="4" max="16384" width="11.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>159</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3406,102 +3412,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="26"/>
     </row>
     <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="30"/>
     </row>
     <row r="6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="24"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="26"/>
     </row>
     <row r="8">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="26"/>
     </row>
     <row r="10">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="24"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="26"/>
     </row>
     <row r="14">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3531,52 +3537,52 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/conf/conf.xlsx
+++ b/conf/conf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Area</t>
   </si>
   <si>
+    <t>setValue</t>
+  </si>
+  <si>
     <t>Bearbeiter</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>main</t>
   </si>
   <si>
+    <t>Ja</t>
+  </si>
+  <si>
     <t>K-Nummer</t>
   </si>
   <si>
@@ -94,9 +100,6 @@
   </si>
   <si>
     <t>Allgemeines</t>
-  </si>
-  <si>
-    <t>Ja</t>
   </si>
   <si>
     <t>3,4,5</t>
@@ -492,6 +495,15 @@
   </si>
   <si>
     <t>modal</t>
+  </si>
+  <si>
+    <t>Suche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche nach vorhandener K-Nummer</t>
+  </si>
+  <si>
+    <t>navbar</t>
   </si>
   <si>
     <t xml:space="preserve">Auswahlliste 1</t>
@@ -751,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -777,7 +789,6 @@
     </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +797,6 @@
     </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1322,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="B44" activeCellId="0" sqref="B44"/>
+      <selection activeCell="J68" activeCellId="0" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1368,32 +1376,38 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1401,22 +1415,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1424,25 +1441,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1450,25 +1470,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -1476,28 +1499,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -1505,28 +1531,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -1534,28 +1563,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -1563,28 +1595,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -1592,28 +1627,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -1621,28 +1659,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -1650,28 +1691,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="14.25">
@@ -1679,28 +1723,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="14.25">
@@ -1708,28 +1755,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -1737,28 +1787,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -1766,28 +1819,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1795,28 +1851,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -1824,28 +1883,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="14.25">
@@ -1853,28 +1915,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="28.5">
@@ -1882,28 +1947,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -1911,28 +1979,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="28.5">
@@ -1940,28 +2011,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -1969,28 +2043,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -1998,28 +2075,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -2027,28 +2107,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -2056,28 +2139,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -2085,28 +2171,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="14.25">
@@ -2114,28 +2203,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -2143,28 +2235,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="14.25">
@@ -2172,28 +2267,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -2201,28 +2299,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -2230,28 +2331,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -2259,28 +2363,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -2288,28 +2395,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -2317,28 +2427,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -2346,57 +2459,63 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>94</v>
       </c>
+      <c r="C37" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="14.25">
@@ -2404,28 +2523,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="14.25">
@@ -2433,28 +2555,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="14.25">
@@ -2462,28 +2587,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="14.25">
@@ -2491,28 +2619,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="14.25">
@@ -2520,86 +2651,95 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="28.5">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>107</v>
       </c>
+      <c r="C43" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="33" customHeight="1">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="13" t="s">
         <v>109</v>
       </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="14.25">
@@ -2607,28 +2747,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="14.25">
@@ -2636,28 +2779,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="14.25">
@@ -2665,28 +2811,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -2694,28 +2843,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s">
-        <v>115</v>
-      </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -2723,86 +2875,95 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="42.75">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>121</v>
       </c>
+      <c r="C50" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="28.5">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" t="s">
-        <v>122</v>
-      </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -2810,28 +2971,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -2839,57 +3003,63 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="28.5">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>130</v>
       </c>
+      <c r="C54" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -2897,28 +3067,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="14.25">
@@ -2926,28 +3099,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="14.25">
@@ -2955,28 +3131,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" t="s">
-        <v>135</v>
-      </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -2984,231 +3163,255 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>139</v>
       </c>
+      <c r="C59" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>143</v>
+      <c r="B61" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" t="s">
-        <v>144</v>
-      </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>148</v>
       </c>
+      <c r="C63" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>151</v>
       </c>
+      <c r="D64" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="28.5">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="23" t="s">
+      <c r="B65" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="14.25">
@@ -3216,22 +3419,51 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>155</v>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3254,141 +3486,142 @@
     <col customWidth="1" min="1" max="1" width="37.7109375"/>
     <col customWidth="1" min="2" max="2" width="19"/>
     <col customWidth="1" min="3" max="3" width="19.85546875"/>
+    <col min="4" max="16384" width="11.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>160</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3412,102 +3645,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="24"/>
     </row>
     <row r="2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="24"/>
     </row>
     <row r="4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="30"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="24"/>
     </row>
     <row r="8">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="24"/>
     </row>
     <row r="10">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="26"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3537,52 +3770,52 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
